--- a/Python_Bot our group project/Dashboard bot clients.xlsx
+++ b/Python_Bot our group project/Dashboard bot clients.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <fileSharing userName="Spaceship24" algorithmName="SHA-512" hashValue="Zbu6yCDcY+VZ9JXNOgeKcQRjppHICOSWLUnYh3HcvAPPcT9AvbcP43t2YhC1xp3Z4oz3zzAXo8QkZGzJCtDqDQ==" saltValue="7dWvkxA9yFpJa8VBbzMXbQ==" spinCount="100000"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guest\Desktop\MISIS_intro\Python_Bot our group project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_repos\University_courses\MISIS_intro\Python_Bot our group project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{D4199662-679F-461B-8129-66E218E4B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="529" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'БД Студентов'!$A$1:$X$93</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Разделение ФИО ЛПР'!$A$1:$C$97</definedName>
-    <definedName name="Возможные_источники_ЛПР" comment="Диапозон">Справочник_Источники_ЛПР[Справочник Источники ЛПР]</definedName>
+    <definedName name="Возможные_источники_ЛПР" comment="Диапозон">Справочник_Источники_ЛПР[Справочник Источники Студентов]</definedName>
     <definedName name="До_1_группа_дети">Dashboard!#REF!</definedName>
     <definedName name="До_1_группа_ЛПР">Dashboard!$C$23</definedName>
     <definedName name="До_2_группа_дети">Dashboard!#REF!</definedName>
@@ -35,7 +36,7 @@
     <definedName name="От_2_группа_дети">Dashboard!#REF!</definedName>
     <definedName name="От_2_группа_ЛПР">Dashboard!$G$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,15 +55,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Запрос — Разделение ФИО ЛПР" description="Соединение с запросом &quot;Разделение ФИО ЛПР&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Запрос — Разделение ФИО ЛПР" description="Соединение с запросом &quot;Разделение ФИО ЛПР&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Разделение ФИО ЛПР;Extended Properties=&quot;&quot;" command="SELECT * FROM [Разделение ФИО ЛПР]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="275">
   <si>
     <t>Фамилия</t>
   </si>
@@ -103,12 +104,6 @@
     <t>Солнечная Долина 2018</t>
   </si>
   <si>
-    <t>Зима в Голубино 2019</t>
-  </si>
-  <si>
-    <t>Зима в Голубино 2020</t>
-  </si>
-  <si>
     <t>Эски-Кермен Крым 2020</t>
   </si>
   <si>
@@ -118,9 +113,6 @@
     <t>Солнечная Долина 2021 Форт Боярд</t>
   </si>
   <si>
-    <t>Зима в Голубино 2022</t>
-  </si>
-  <si>
     <t>Солнечная Долина 2022 Волшебное приключение в Тавриде</t>
   </si>
   <si>
@@ -175,9 +167,6 @@
     <t>Юрьевна</t>
   </si>
   <si>
-    <t>InCamp</t>
-  </si>
-  <si>
     <t>Зайцева</t>
   </si>
   <si>
@@ -268,9 +257,6 @@
     <t>Лапочкина</t>
   </si>
   <si>
-    <t>Мамонтова</t>
-  </si>
-  <si>
     <t>Антопольский</t>
   </si>
   <si>
@@ -571,9 +557,6 @@
     <t>Дмитриевна</t>
   </si>
   <si>
-    <t>Tilda 7feetcamps.ru</t>
-  </si>
-  <si>
     <t>Оксаны</t>
   </si>
   <si>
@@ -592,9 +575,6 @@
     <t>Алеся</t>
   </si>
   <si>
-    <t>Голубино</t>
-  </si>
-  <si>
     <t>Даркова</t>
   </si>
   <si>
@@ -685,12 +665,6 @@
     <t>Алексашина</t>
   </si>
   <si>
-    <t>Число привлеченных ЛПР</t>
-  </si>
-  <si>
-    <t>Прочие источники</t>
-  </si>
-  <si>
     <t>Другой возраст</t>
   </si>
   <si>
@@ -718,9 +692,6 @@
     <t>(жена</t>
   </si>
   <si>
-    <t>Справочник Источники ЛПР</t>
-  </si>
-  <si>
     <t>Границы диапозона возраста включаются в расчёты</t>
   </si>
   <si>
@@ -880,9 +851,6 @@
     <t>Привлечение амбассодорами в ВУЗе</t>
   </si>
   <si>
-    <t>Неизвестно</t>
-  </si>
-  <si>
     <t>Возраст Студентов</t>
   </si>
   <si>
@@ -902,12 +870,30 @@
   </si>
   <si>
     <t>Ссылка на ВК</t>
+  </si>
+  <si>
+    <t>Число привлеченных Студентов</t>
+  </si>
+  <si>
+    <t>Справочник Источники Студентов</t>
+  </si>
+  <si>
+    <t>Зима в Неизвестен Источник 2019</t>
+  </si>
+  <si>
+    <t>Зима в Неизвестен Источник 2020</t>
+  </si>
+  <si>
+    <t>Зима в Неизвестен Источник 2022</t>
+  </si>
+  <si>
+    <t>Неизвестен Источник</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy;@"/>
@@ -1320,7 +1306,7 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1343,9 +1329,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1397,9 +1380,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
@@ -1449,12 +1429,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,16 +1447,92 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Ввод" xfId="4"/>
-    <cellStyle name="Ввод  2" xfId="5"/>
+    <cellStyle name="Ввод" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Ввод  2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="3"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2734,30 +2784,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2813,20 +2839,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Наличие </a:t>
+              <a:t>Наличие Вконтакте</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Instagram </a:t>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>у ЛПР</a:t>
+              <a:t>у Студентов</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2852,7 +2877,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2971,7 +2996,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2999,9 +3024,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3061,7 +3084,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3087,7 +3109,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3115,7 +3137,7 @@
       <a:pPr>
         <a:defRPr b="1"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3162,12 +3184,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Возраст ЛПР</a:t>
+              <a:t>Возраст Студентов</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3193,7 +3214,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3323,7 +3344,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3351,9 +3372,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3362,10 +3381,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25 - 35 лет</c:v>
+                  <c:v>16 - 19 лет</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36 - 45 лет</c:v>
+                  <c:v>20 - 30 лет</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Другой возраст</c:v>
@@ -3383,13 +3402,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31</c:v>
@@ -3425,7 +3444,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3451,7 +3469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3479,7 +3497,7 @@
       <a:pPr>
         <a:defRPr b="1"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3559,7 +3577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Число привлеченных ЛПР</c:v>
+                  <c:v>Число привлеченных Студентов</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3626,7 +3644,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3643,7 +3661,6 @@
                     <a:avLst/>
                   </a:prstGeom>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3663,25 +3680,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Источники Студентов'!$A$2:$A$7</c:f>
+              <c:f>'Источники Студентов'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Семён</c:v>
+                  <c:v>Реклама в группах</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Романова-Африкантова</c:v>
+                  <c:v>Посты в ВК</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>InCamp</c:v>
+                  <c:v>Привлечение амбассодорами в ВУЗе</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Реклама</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Прочие источники</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Неизвестен источник</c:v>
                 </c:pt>
               </c:strCache>
@@ -3689,27 +3700,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Источники Студентов'!$B$2:$B$7</c:f>
+              <c:f>'Источники Студентов'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3772,7 +3777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2073381904"/>
@@ -3829,7 +3834,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2073367760"/>
@@ -3862,11 +3867,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,13 +3893,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3903,6 +3906,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3923,7 +3927,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3983,7 +3987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4009,7 +4012,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4128,7 +4131,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4156,9 +4159,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4218,7 +4219,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4244,7 +4244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4272,7 +4272,7 @@
       <a:pPr>
         <a:defRPr b="1"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4319,12 +4319,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Возраст ЛПР</a:t>
+              <a:t>Возраст Студентов</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4350,7 +4349,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4480,7 +4479,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4508,9 +4507,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4519,10 +4516,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25 - 35 лет</c:v>
+                  <c:v>16 - 19 лет</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36 - 45 лет</c:v>
+                  <c:v>20 - 30 лет</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Другой возраст</c:v>
@@ -4540,13 +4537,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31</c:v>
@@ -4582,7 +4579,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4608,7 +4604,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4636,7 +4632,7 @@
       <a:pPr>
         <a:defRPr b="1"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4716,7 +4712,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Число привлеченных ЛПР</c:v>
+                  <c:v>Число привлеченных Студентов</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4783,7 +4779,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4819,25 +4815,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Источники Студентов'!$A$2:$A$7</c:f>
+              <c:f>'Источники Студентов'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Семён</c:v>
+                  <c:v>Реклама в группах</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Романова-Африкантова</c:v>
+                  <c:v>Посты в ВК</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>InCamp</c:v>
+                  <c:v>Привлечение амбассодорами в ВУЗе</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Реклама</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Прочие источники</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Неизвестен источник</c:v>
                 </c:pt>
               </c:strCache>
@@ -4845,27 +4835,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Источники Студентов'!$B$2:$B$7</c:f>
+              <c:f>'Источники Студентов'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4928,7 +4912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2073381904"/>
@@ -4985,7 +4969,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2073367760"/>
@@ -5024,13 +5008,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5038,6 +5021,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5058,7 +5042,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7516,14 +7500,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2152089</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>39781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7554,7 +7538,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="3">
       <queryTableField id="4" name="Фамилия" tableColumnId="4"/>
@@ -7566,60 +7550,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_ЛПР" displayName="Таблица_ЛПР" comment="Таблица" ref="A1:X98" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
-  <autoFilter ref="A1:X98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица_ЛПР" displayName="Таблица_ЛПР" comment="Таблица" ref="A1:X99" totalsRowShown="0" headerRowDxfId="0" dataDxfId="54" headerRowBorderDxfId="1" tableBorderDxfId="53">
+  <autoFilter ref="A1:X99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="ФИО Студента" dataDxfId="50"/>
-    <tableColumn id="5" name="Телефон студента" dataDxfId="49"/>
-    <tableColumn id="22" name="Дата рождения студента" dataDxfId="48"/>
-    <tableColumn id="23" name="Возраст Студента" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ФИО Студента" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Телефон студента" dataDxfId="51"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Дата рождения студента" dataDxfId="50"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Возраст Студента" dataDxfId="49">
       <calculatedColumnFormula>IF(DATEDIF(C2, TODAY(), "Y") &gt; 80, "Нет данных", DATEDIF(C2, TODAY(), "Y"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Вконтакте Студента" dataDxfId="46"/>
-    <tableColumn id="45" name="Хоккей в Сочи 2016" dataDxfId="45"/>
-    <tableColumn id="46" name="Солнечная Долина 2016" dataDxfId="44"/>
-    <tableColumn id="47" name="Зима в сочи 2017" dataDxfId="43"/>
-    <tableColumn id="48" name="Солнечная Долина 2017 1-ая смена" dataDxfId="42"/>
-    <tableColumn id="49" name="Солнечная Долина 2017 2-ая смена" dataDxfId="41"/>
-    <tableColumn id="50" name="Дивное 2018" dataDxfId="40"/>
-    <tableColumn id="51" name="Греция 2018 Оливия" dataDxfId="39"/>
-    <tableColumn id="52" name="Греция 2018 Дом Солнца" dataDxfId="38"/>
-    <tableColumn id="53" name="Солнечная Долина 2018" dataDxfId="37"/>
-    <tableColumn id="54" name="Зима в Голубино 2019" dataDxfId="36"/>
-    <tableColumn id="55" name="Зима в Голубино 2020" dataDxfId="35"/>
-    <tableColumn id="56" name="Эски-Кермен Крым 2020" dataDxfId="34"/>
-    <tableColumn id="57" name="Солнечная Долина  2021 Седьмой Интеллект" dataDxfId="33"/>
-    <tableColumn id="58" name="Солнечная Долина 2021 Форт Боярд" dataDxfId="32"/>
-    <tableColumn id="59" name="Зима в Голубино 2022" dataDxfId="31"/>
-    <tableColumn id="60" name="Солнечная Долина 2022 Волшебное приключение в Тавриде" dataDxfId="30"/>
-    <tableColumn id="61" name="Солнечная Долина 2022 Школа Хогвартс. Неизданное." dataDxfId="29"/>
-    <tableColumn id="62" name="Солнечная Долина 2022 Краски Крымских Эмоций" dataDxfId="28"/>
-    <tableColumn id="63" name="Источник" dataDxfId="27"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Вконтакте Студента" dataDxfId="48"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Хоккей в Сочи 2016" dataDxfId="47"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Солнечная Долина 2016" dataDxfId="46"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Зима в сочи 2017" dataDxfId="45"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Солнечная Долина 2017 1-ая смена" dataDxfId="44"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Солнечная Долина 2017 2-ая смена" dataDxfId="43"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Дивное 2018" dataDxfId="42"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Греция 2018 Оливия" dataDxfId="41"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Греция 2018 Дом Солнца" dataDxfId="40"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Солнечная Долина 2018" dataDxfId="39"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Зима в Неизвестен Источник 2019" dataDxfId="38"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Зима в Неизвестен Источник 2020" dataDxfId="37"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Эски-Кермен Крым 2020" dataDxfId="36"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Солнечная Долина  2021 Седьмой Интеллект" dataDxfId="35"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Солнечная Долина 2021 Форт Боярд" dataDxfId="34"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Зима в Неизвестен Источник 2022" dataDxfId="33"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Солнечная Долина 2022 Волшебное приключение в Тавриде" dataDxfId="32"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Солнечная Долина 2022 Школа Хогвартс. Неизданное." dataDxfId="31"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Солнечная Долина 2022 Краски Крымских Эмоций" dataDxfId="30"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Источник" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Разделение_ФИО_ЛПР" displayName="Разделение_ФИО_ЛПР" ref="A1:C97" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Разделение_ФИО_ЛПР" displayName="Разделение_ФИО_ЛПР" ref="A1:C97" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C97" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="4" uniqueName="4" name="Фамилия" queryTableFieldId="4" dataDxfId="26"/>
-    <tableColumn id="5" uniqueName="5" name="Имя" queryTableFieldId="5" dataDxfId="25"/>
-    <tableColumn id="6" uniqueName="6" name="Отчество" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Фамилия" queryTableFieldId="4" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Имя" queryTableFieldId="5" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Отчество" queryTableFieldId="6" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Instagram_ЛПР" displayName="Instagram_ЛПР" comment="Таблица" ref="A2:B3" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A2:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Instagram_ЛПР" displayName="Instagram_ЛПР" comment="Таблица" ref="A2:B3" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A2:B3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Имеется" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Имеется" dataDxfId="21">
       <calculatedColumnFormula>COUNTA(Таблица_ЛПР[Вконтакте Студента])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Не имеется" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Не имеется" dataDxfId="20">
       <calculatedColumnFormula>'Возраст Студентов'!B7 - 'ВК Студентов'!A3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7628,11 +7612,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Возраст_ЛПР" displayName="Возраст_ЛПР" comment="Таблица" ref="A2:B6" totalsRowShown="0">
-  <autoFilter ref="A2:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Возраст_ЛПР" displayName="Возраст_ЛПР" comment="Таблица" ref="A2:B6" totalsRowShown="0">
+  <autoFilter ref="A2:B6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Возраст студентов"/>
-    <tableColumn id="2" name="Число студентов">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Возраст студентов"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Число студентов">
       <calculatedColumnFormula>COUNTIF(Таблица_ЛПР[Возраст Студента], "&gt;36") - COUNTIF(Таблица_ЛПР[Возраст Студента], "&gt;45")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7641,35 +7625,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Источники_ЛПР" displayName="Источники_ЛПР" comment="Таблица" ref="A1:B7" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="Обычный 2">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Источники_ЛПР" displayName="Источники_ЛПР" comment="Таблица" ref="A1:B5" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16" headerRowCellStyle="Обычный 2">
+  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Иточник Студентов" dataDxfId="13"/>
-    <tableColumn id="2" name="Число привлеченных ЛПР" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Иточник Студентов" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Число привлеченных Студентов" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Справочник_Источники_ЛПР" displayName="Справочник_Источники_ЛПР" comment="Таблица" ref="D1:D5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="D1:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Справочник_Источники_ЛПР" displayName="Справочник_Источники_ЛПР" comment="Таблица" ref="D1:D5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="D1:D5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Справочник Источники ЛПР" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Справочник Источники Студентов" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Поддержка_модели_данных" displayName="Поддержка_модели_данных" ref="A2:E8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5" headerRowCellStyle="Обычный 2" dataCellStyle="Обычный 2">
-  <autoFilter ref="A2:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Поддержка_модели_данных" displayName="Поддержка_модели_данных" ref="A2:E8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Обычный 2" dataCellStyle="Обычный 2">
+  <autoFilter ref="A2:E8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Решаемые вопросы заказчика (Бизнес задачи)" dataDxfId="4" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" name="Используемые функции" dataDxfId="3" dataCellStyle="Обычный 2"/>
-    <tableColumn id="3" name="Используемы столбцы данных" dataDxfId="2" dataCellStyle="Обычный 2"/>
-    <tableColumn id="4" name="Формат обрабатываемых данных" dataDxfId="1" dataCellStyle="Обычный 2"/>
-    <tableColumn id="5" name="Где посмотреть вычисления" dataDxfId="0" dataCellStyle="Обычный 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Решаемые вопросы заказчика (Бизнес задачи)" dataDxfId="6" dataCellStyle="Обычный 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Используемые функции" dataDxfId="5" dataCellStyle="Обычный 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Используемы столбцы данных" dataDxfId="4" dataCellStyle="Обычный 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Формат обрабатываемых данных" dataDxfId="3" dataCellStyle="Обычный 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Где посмотреть вычисления" dataDxfId="2" dataCellStyle="Обычный 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8945,64 +8929,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="15" width="9.1796875" customWidth="1"/>
+    <col min="1" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="23.7265625" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="23.7265625" hidden="1" customWidth="1"/>
-    <col min="23" max="25" width="56.453125" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="9.1796875" hidden="1"/>
-    <col min="28" max="28" width="23.7265625" hidden="1"/>
-    <col min="29" max="31" width="56.453125" hidden="1"/>
-    <col min="32" max="16384" width="9.1796875" hidden="1"/>
+    <col min="19" max="19" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="25" width="56.42578125" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="29" max="31" width="56.42578125" hidden="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16"/>
     <row r="2" spans="3:16" ht="15" customHeight="1">
-      <c r="C2" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
+      <c r="C2" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62"/>
     </row>
     <row r="3" spans="3:16" ht="15" customHeight="1">
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="3:16"/>
     <row r="5" spans="3:16"/>
@@ -9022,43 +9006,43 @@
     <row r="19" spans="2:8"/>
     <row r="20" spans="2:8"/>
     <row r="21" spans="2:8">
-      <c r="B21" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="F21" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+      <c r="B21" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="F21" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="54">
-        <v>25</v>
+        <v>242</v>
+      </c>
+      <c r="C22" s="52">
+        <v>16</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G22" s="54">
-        <v>36</v>
+        <v>242</v>
+      </c>
+      <c r="G22" s="52">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="54">
-        <v>35</v>
+        <v>243</v>
+      </c>
+      <c r="C23" s="52">
+        <v>19</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="54">
-        <v>45</v>
+        <v>243</v>
+      </c>
+      <c r="G23" s="52">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:8"/>
@@ -9079,30 +9063,30 @@
     <row r="39"/>
     <row r="40"/>
     <row r="41"/>
-    <row r="51" spans="3:3" ht="35" hidden="1">
+    <row r="51" spans="3:3" ht="34.5" hidden="1">
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="3:3" ht="35" hidden="1">
+    <row r="52" spans="3:3" ht="34.5" hidden="1">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="3:3" ht="35" hidden="1">
+    <row r="53" spans="3:3" ht="34.5" hidden="1">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="3:3" ht="35" hidden="1">
+    <row r="54" spans="3:3" ht="34.5" hidden="1">
       <c r="C54" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:P3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный ввод" error="&quot;От&quot; должно быть &lt; &quot;До&quot;" prompt="От какого возраста включительно (целое число)" sqref="C22">
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный ввод" error="&quot;От&quot; должно быть &lt; &quot;До&quot;" prompt="От какого возраста включительно (целое число)" sqref="C22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>C23</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный ввод" error="&quot;До&quot; должно быть &gt; &quot;От&quot;" prompt="До какого возраста включительно (целое число)" sqref="G23 C23">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный ввод" error="&quot;До&quot; должно быть &gt; &quot;От&quot;" prompt="До какого возраста включительно (целое число)" sqref="G23 C23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>C22</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный ввод" error="Диапозон возраста старшей группы должен быть больше диапозона младшей группы." prompt="От какого возраста включительно (целое число)" sqref="G22">
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный ввод" error="Диапозон возраста старшей группы должен быть больше диапозона младшей группы." prompt="От какого возраста включительно (целое число)" sqref="G22" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>G23</formula1>
     </dataValidation>
   </dataValidations>
@@ -9118,131 +9102,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" zeroHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" zeroHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="30" customWidth="1"/>
-    <col min="6" max="14" width="8.7265625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="13.1796875" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="18" width="8.7265625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="16.54296875" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="8.7265625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="15.26953125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="8.7265625" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="12.453125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="47" style="35" customWidth="1" collapsed="1"/>
-    <col min="25" max="28" width="9.1796875" style="30"/>
-    <col min="29" max="29" width="9.1796875" style="30" customWidth="1"/>
-    <col min="30" max="16384" width="9.1796875" style="30"/>
+    <col min="1" max="1" width="44.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="29" customWidth="1"/>
+    <col min="6" max="14" width="8.7109375" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="13.140625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="18" width="8.7109375" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="16.5703125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="8.7109375" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="8.7109375" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="12.42578125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="47" style="34" customWidth="1" collapsed="1"/>
+    <col min="25" max="28" width="9.140625" style="29"/>
+    <col min="29" max="29" width="9.140625" style="29" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="36" t="s">
+    <row r="1" spans="1:24" s="27" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="R1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="S1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="T1" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="U1" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="V1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="W1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="X1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="38" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1">
-      <c r="A2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="61">
+      <c r="A2" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C2" s="27">
-        <v>28899</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="C2" s="26">
+        <v>39857</v>
+      </c>
+      <c r="D2" s="18">
         <f ca="1">IF(DATEDIF(C2, TODAY(), "Y") &gt; 80, "Нет данных", DATEDIF(C2, TODAY(), "Y"))</f>
-        <v>45</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>279</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -9256,40 +9240,40 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="3" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1">
-      <c r="A3" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="61">
+      <c r="A3" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C3" s="27">
-        <v>28019</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="26">
+        <v>38976</v>
+      </c>
+      <c r="D3" s="18">
         <f t="shared" ref="D3:D66" ca="1" si="0">IF(DATEDIF(C3, TODAY(), "Y") &gt; 80, "Нет данных", DATEDIF(C3, TODAY(), "Y"))</f>
-        <v>48</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>279</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -9303,48 +9287,48 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1">
-      <c r="A4" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="61">
+      <c r="A4" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C4" s="27">
-        <v>31314</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="26">
+        <v>38619</v>
+      </c>
+      <c r="D4" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E4" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="E4" s="19"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -9358,48 +9342,48 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1">
-      <c r="A5" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="61">
+      <c r="A5" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C5" s="27">
-        <v>31163</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="26">
+        <v>38468</v>
+      </c>
+      <c r="D5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E5" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -9407,89 +9391,89 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1">
-      <c r="A6" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="61">
+      <c r="A6" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="19" t="str">
+      <c r="C6" s="26"/>
+      <c r="D6" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1">
-      <c r="A7" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="61">
+      <c r="A7" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C7" s="27">
-        <v>27839</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C7" s="26">
+        <v>38796</v>
+      </c>
+      <c r="D7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -9501,45 +9485,45 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="61">
+      <c r="A8" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C8" s="27">
-        <v>30711</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="26">
+        <v>38016</v>
+      </c>
+      <c r="D8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E8" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -9548,36 +9532,36 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" s="4" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="61">
+      <c r="A9" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C9" s="27">
-        <v>28539</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="26">
+        <v>39496</v>
+      </c>
+      <c r="D9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E9" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -9591,91 +9575,91 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="61">
+      <c r="A10" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C10" s="27">
-        <v>25566</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="26">
+        <v>40176</v>
+      </c>
+      <c r="D10" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1">
-      <c r="A11" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="61">
+      <c r="A11" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C11" s="27">
-        <v>27141</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="26">
+        <v>38099</v>
+      </c>
+      <c r="D11" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -9684,50 +9668,50 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="61">
+      <c r="A12" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="19" t="str">
+      <c r="C12" s="26"/>
+      <c r="D12" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -9738,42 +9722,42 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="61">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C13" s="27">
-        <v>27760</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="26">
+        <v>38718</v>
+      </c>
+      <c r="D13" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E13" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -9788,90 +9772,90 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="61">
+      <c r="A14" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C14" s="27">
-        <v>29102</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="26">
+        <v>40060</v>
+      </c>
+      <c r="D14" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="61">
+      <c r="A15" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C15" s="27">
-        <v>30485</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="26">
+        <v>37790</v>
+      </c>
+      <c r="D15" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E15" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -9883,42 +9867,42 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="61">
+      <c r="A16" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C16" s="27">
-        <v>30270</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="C16" s="26">
+        <v>37575</v>
+      </c>
+      <c r="D16" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -9928,34 +9912,34 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B17" s="61">
+      <c r="A17" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C17" s="27">
-        <v>28951</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="C17" s="26">
+        <v>39909</v>
+      </c>
+      <c r="D17" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>279</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -9968,10 +9952,10 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -9980,27 +9964,27 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="3" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" s="61">
+      <c r="A18" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="19" t="str">
+      <c r="C18" s="26"/>
+      <c r="D18" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -10017,26 +10001,26 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="61">
+      <c r="A19" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C19" s="27">
-        <v>28881</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="C19" s="26">
+        <v>39839</v>
+      </c>
+      <c r="D19" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E19" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -10056,32 +10040,32 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="61">
+      <c r="A20" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C20" s="27">
-        <v>24147</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="26">
+        <v>38757</v>
+      </c>
+      <c r="D20" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="E20" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -10097,91 +10081,91 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" s="61">
+      <c r="A21" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C21" s="27">
-        <v>28249</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="C21" s="26">
+        <v>39206</v>
+      </c>
+      <c r="D21" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E21" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" s="61">
+      <c r="A22" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C22" s="27">
-        <v>28709</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="C22" s="26">
+        <v>39667</v>
+      </c>
+      <c r="D22" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E22" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -10189,24 +10173,24 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="61">
+      <c r="A23" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C23" s="27">
-        <v>28448</v>
-      </c>
-      <c r="D23" s="19">
+      <c r="C23" s="26">
+        <v>39405</v>
+      </c>
+      <c r="D23" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E23" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -10226,29 +10210,29 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="3" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="61">
+      <c r="A24" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="19" t="str">
+      <c r="C24" s="26"/>
+      <c r="D24" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -10259,30 +10243,30 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B25" s="61">
+      <c r="A25" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C25" s="27">
-        <v>32918</v>
-      </c>
-      <c r="D25" s="19">
+      <c r="C25" s="26">
+        <v>36570</v>
+      </c>
+      <c r="D25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E25" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="19"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -10292,7 +10276,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -10304,24 +10288,24 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="61">
+      <c r="A26" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C26" s="27">
-        <v>27866</v>
-      </c>
-      <c r="D26" s="19">
+      <c r="C26" s="26">
+        <v>38823</v>
+      </c>
+      <c r="D26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E26" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -10332,7 +10316,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -10343,24 +10327,24 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27" s="61">
+      <c r="A27" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C27" s="27">
-        <v>29284</v>
-      </c>
-      <c r="D27" s="19">
+      <c r="C27" s="26">
+        <v>36589</v>
+      </c>
+      <c r="D27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E27" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="E27" s="19"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -10373,7 +10357,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -10382,24 +10366,24 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28" s="61">
+      <c r="A28" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C28" s="27">
-        <v>31725</v>
-      </c>
-      <c r="D28" s="19">
+      <c r="C28" s="26">
+        <v>39030</v>
+      </c>
+      <c r="D28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E28" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="E28" s="19"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -10412,7 +10396,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -10421,22 +10405,22 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" s="61">
+      <c r="A29" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="19" t="str">
+      <c r="C29" s="26"/>
+      <c r="D29" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -10450,7 +10434,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -10458,22 +10442,22 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" s="61">
+      <c r="A30" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="19" t="str">
+      <c r="C30" s="26"/>
+      <c r="D30" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -10485,9 +10469,9 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="20"/>
+      <c r="Q30" s="19"/>
       <c r="R30" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -10495,22 +10479,22 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B31" s="61">
+      <c r="A31" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="19" t="str">
+      <c r="C31" s="26"/>
+      <c r="D31" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -10524,7 +10508,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -10532,24 +10516,24 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B32" s="61">
+      <c r="A32" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C32" s="27">
-        <v>29116</v>
-      </c>
-      <c r="D32" s="19">
+      <c r="C32" s="26">
+        <v>40074</v>
+      </c>
+      <c r="D32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E32" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="E32" s="19"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -10563,37 +10547,37 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B33" s="61">
+      <c r="A33" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C33" s="27">
-        <v>28291</v>
-      </c>
-      <c r="D33" s="19">
+      <c r="C33" s="26">
+        <v>39248</v>
+      </c>
+      <c r="D33" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>279</v>
+        <v>17</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -10608,7 +10592,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -10616,25 +10600,25 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15" customHeight="1">
-      <c r="A34" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B34" s="61">
+      <c r="A34" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C34" s="27">
-        <v>31766</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="26">
+        <v>39071</v>
+      </c>
+      <c r="D34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>279</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -10649,7 +10633,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -10657,24 +10641,24 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1">
-      <c r="A35" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" s="61">
+      <c r="A35" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C35" s="27">
-        <v>32363</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="26">
+        <v>39668</v>
+      </c>
+      <c r="D35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E35" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="E35" s="19"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -10688,7 +10672,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -10696,24 +10680,24 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1">
-      <c r="A36" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" s="61">
+      <c r="A36" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C36" s="27">
-        <v>32235</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="26">
+        <v>39540</v>
+      </c>
+      <c r="D36" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E36" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="E36" s="19"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -10727,7 +10711,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -10735,38 +10719,38 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B37" s="61">
+      <c r="A37" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C37" s="27">
-        <v>29752</v>
-      </c>
-      <c r="D37" s="19">
+      <c r="C37" s="26">
+        <v>37057</v>
+      </c>
+      <c r="D37" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
       <c r="R37" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -10774,38 +10758,38 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B38" s="61">
+      <c r="A38" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C38" s="27">
-        <v>28601</v>
-      </c>
-      <c r="D38" s="19">
+      <c r="C38" s="26">
+        <v>39559</v>
+      </c>
+      <c r="D38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -10813,24 +10797,24 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1">
-      <c r="A39" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" s="61">
+      <c r="A39" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C39" s="27">
-        <v>30818</v>
-      </c>
-      <c r="D39" s="19">
+      <c r="C39" s="26">
+        <v>38123</v>
+      </c>
+      <c r="D39" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E39" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="19"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -10844,7 +10828,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -10852,24 +10836,24 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
-      <c r="A40" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B40" s="61">
+      <c r="A40" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C40" s="27">
-        <v>32827</v>
-      </c>
-      <c r="D40" s="19">
+      <c r="C40" s="26">
+        <v>36845</v>
+      </c>
+      <c r="D40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E40" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="E40" s="19"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -10883,7 +10867,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -10891,24 +10875,24 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1">
-      <c r="A41" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41" s="61">
+      <c r="A41" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C41" s="27">
-        <v>31891</v>
-      </c>
-      <c r="D41" s="19">
+      <c r="C41" s="26">
+        <v>39196</v>
+      </c>
+      <c r="D41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E41" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="E41" s="19"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -10922,7 +10906,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -10930,22 +10914,22 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1">
-      <c r="A42" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B42" s="61">
+      <c r="A42" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="19" t="str">
+      <c r="C42" s="26"/>
+      <c r="D42" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E42" s="20"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -10959,7 +10943,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -10967,25 +10951,25 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="15" customHeight="1">
-      <c r="A43" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="61">
+      <c r="A43" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C43" s="27">
-        <v>31063</v>
-      </c>
-      <c r="D43" s="19">
+      <c r="C43" s="26">
+        <v>38368</v>
+      </c>
+      <c r="D43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>279</v>
+        <v>19</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -11000,7 +10984,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -11008,25 +10992,25 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1">
-      <c r="A44" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="61">
+      <c r="A44" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C44" s="27">
-        <v>32064</v>
-      </c>
-      <c r="D44" s="19">
+      <c r="C44" s="26">
+        <v>39369</v>
+      </c>
+      <c r="D44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>279</v>
+        <v>17</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -11041,7 +11025,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -11049,24 +11033,24 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
-      <c r="A45" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B45" s="61">
+      <c r="A45" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C45" s="27">
-        <v>28940</v>
-      </c>
-      <c r="D45" s="19">
+      <c r="C45" s="26">
+        <v>39898</v>
+      </c>
+      <c r="D45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E45" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="E45" s="19"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -11080,7 +11064,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -11088,24 +11072,24 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1">
-      <c r="A46" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B46" s="61">
+      <c r="A46" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C46" s="27">
-        <v>29372</v>
-      </c>
-      <c r="D46" s="19">
+      <c r="C46" s="26">
+        <v>36677</v>
+      </c>
+      <c r="D46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E46" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="E46" s="19"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -11120,32 +11104,32 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
-      <c r="A47" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="61">
+      <c r="A47" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C47" s="27">
-        <v>30285</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="C47" s="26">
+        <v>36860</v>
+      </c>
+      <c r="D47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>279</v>
+        <v>23</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -11161,32 +11145,32 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
-      <c r="A48" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="61">
+      <c r="A48" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C48" s="27">
-        <v>28739</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="C48" s="26">
+        <v>39697</v>
+      </c>
+      <c r="D48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>279</v>
+        <v>16</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -11202,31 +11186,31 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1">
-      <c r="A49" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="61">
+      <c r="A49" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C49" s="27">
-        <v>27538</v>
-      </c>
-      <c r="D49" s="19">
+      <c r="C49" s="26">
+        <v>38496</v>
+      </c>
+      <c r="D49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E49" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="E49" s="19"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -11241,32 +11225,32 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1">
-      <c r="A50" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="61">
+      <c r="A50" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C50" s="27">
-        <v>41073</v>
-      </c>
-      <c r="D50" s="19">
+      <c r="C50" s="26">
+        <v>37420</v>
+      </c>
+      <c r="D50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>279</v>
+        <v>22</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -11282,31 +11266,31 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1">
-      <c r="A51" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51" s="61">
+      <c r="A51" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C51" s="27">
-        <v>26872</v>
-      </c>
-      <c r="D51" s="19">
+      <c r="C51" s="26">
+        <v>37829</v>
+      </c>
+      <c r="D51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="E51" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E51" s="19"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -11321,31 +11305,31 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1">
-      <c r="A52" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B52" s="61">
+      <c r="A52" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C52" s="27">
-        <v>108</v>
-      </c>
-      <c r="D52" s="19" t="str">
+      <c r="C52" s="26">
+        <v>36633</v>
+      </c>
+      <c r="D52" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>Нет данных</v>
-      </c>
-      <c r="E52" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="E52" s="19"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -11360,33 +11344,33 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1">
-      <c r="A53" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B53" s="61">
+      <c r="A53" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C53" s="27">
-        <v>28502</v>
-      </c>
-      <c r="D53" s="19">
+      <c r="C53" s="26">
+        <v>36172</v>
+      </c>
+      <c r="D53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E53" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="E53" s="19"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -11401,31 +11385,31 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1">
-      <c r="A54" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B54" s="61">
+      <c r="A54" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C54" s="27">
-        <v>27363</v>
-      </c>
-      <c r="D54" s="19">
+      <c r="C54" s="26">
+        <v>36129</v>
+      </c>
+      <c r="D54" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E54" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="E54" s="19"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -11440,32 +11424,32 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1">
-      <c r="A55" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B55" s="61">
+      <c r="A55" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C55" s="27">
-        <v>30031</v>
-      </c>
-      <c r="D55" s="19">
+      <c r="C55" s="26">
+        <v>36606</v>
+      </c>
+      <c r="D55" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>279</v>
+        <v>24</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -11481,31 +11465,31 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1">
-      <c r="A56" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B56" s="61">
+      <c r="A56" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C56" s="27">
-        <v>29545</v>
-      </c>
-      <c r="D56" s="19">
+      <c r="C56" s="26">
+        <v>37580</v>
+      </c>
+      <c r="D56" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="E56" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E56" s="19"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -11520,29 +11504,29 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1">
-      <c r="A57" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57" s="61">
+      <c r="A57" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="19" t="str">
+      <c r="C57" s="26"/>
+      <c r="D57" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E57" s="20"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -11557,32 +11541,32 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1">
-      <c r="A58" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B58" s="61">
+      <c r="A58" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C58" s="27">
-        <v>31498</v>
-      </c>
-      <c r="D58" s="19">
+      <c r="C58" s="26">
+        <v>37707</v>
+      </c>
+      <c r="D58" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>279</v>
+        <v>21</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -11598,31 +11582,31 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1">
-      <c r="A59" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="61">
+      <c r="A59" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C59" s="27">
-        <v>29709</v>
-      </c>
-      <c r="D59" s="19">
+      <c r="C59" s="26">
+        <v>38110</v>
+      </c>
+      <c r="D59" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="E59" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E59" s="19"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -11637,31 +11621,31 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1">
-      <c r="A60" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="61">
+      <c r="A60" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="19" t="str">
+      <c r="C60" s="26"/>
+      <c r="D60" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E60" s="20"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -11670,10 +11654,10 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -11685,22 +11669,22 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1">
-      <c r="A61" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B61" s="61">
+      <c r="A61" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="19" t="str">
+      <c r="C61" s="26"/>
+      <c r="D61" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E61" s="20"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -11720,22 +11704,22 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1">
-      <c r="A62" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" s="61">
+      <c r="A62" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="19" t="str">
+      <c r="C62" s="26"/>
+      <c r="D62" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E62" s="20"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -11755,22 +11739,22 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" customHeight="1">
-      <c r="A63" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B63" s="61">
+      <c r="A63" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="19" t="str">
+      <c r="C63" s="26"/>
+      <c r="D63" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E63" s="20"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -11790,24 +11774,24 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="15" customHeight="1">
-      <c r="A64" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B64" s="61">
+      <c r="A64" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C64" s="27">
-        <v>1985</v>
-      </c>
-      <c r="D64" s="19" t="str">
+      <c r="C64" s="26">
+        <v>38145</v>
+      </c>
+      <c r="D64" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>Нет данных</v>
-      </c>
-      <c r="E64" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E64" s="19"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -11827,22 +11811,22 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65" s="61">
+      <c r="A65" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="19" t="str">
+      <c r="C65" s="26"/>
+      <c r="D65" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E65" s="20"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -11856,30 +11840,30 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="15" customHeight="1">
-      <c r="A66" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="19" t="str">
+      <c r="A66" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Нет данных</v>
       </c>
-      <c r="E66" s="20"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -11893,7 +11877,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -11901,20 +11885,20 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="15" customHeight="1">
-      <c r="A67" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="19" t="str">
+      <c r="A67" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="18" t="str">
         <f t="shared" ref="D67:D98" ca="1" si="1">IF(DATEDIF(C67, TODAY(), "Y") &gt; 80, "Нет данных", DATEDIF(C67, TODAY(), "Y"))</f>
         <v>Нет данных</v>
       </c>
-      <c r="E67" s="20"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -11934,20 +11918,20 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="15" customHeight="1">
-      <c r="A68" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="19" t="str">
+      <c r="A68" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E68" s="20"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -11967,22 +11951,22 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1">
-      <c r="A69" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B69" s="61">
+      <c r="A69" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="19" t="str">
+      <c r="C69" s="26"/>
+      <c r="D69" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E69" s="20"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -11997,30 +11981,30 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="1" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1">
-      <c r="A70" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B70" s="61">
+      <c r="A70" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="19" t="str">
+      <c r="C70" s="26"/>
+      <c r="D70" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E70" s="22" t="s">
-        <v>279</v>
+      <c r="E70" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -12035,7 +12019,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -12043,20 +12027,20 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="15" customHeight="1">
-      <c r="A71" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="19" t="str">
+      <c r="A71" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E71" s="20"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -12070,7 +12054,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -12078,22 +12062,22 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="15" customHeight="1">
-      <c r="A72" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B72" s="61">
+      <c r="A72" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="19" t="str">
+      <c r="C72" s="26"/>
+      <c r="D72" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E72" s="20"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -12108,27 +12092,27 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="1" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1">
-      <c r="A73" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="19" t="str">
+      <c r="A73" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E73" s="20"/>
+      <c r="E73" s="19"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -12148,973 +12132,1001 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="1" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B74" s="61">
+      <c r="A74" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B74" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C74" s="27">
-        <v>30453</v>
-      </c>
-      <c r="D74" s="19">
+      <c r="C74" s="26">
+        <v>37758</v>
+      </c>
+      <c r="D74" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:24">
-      <c r="A75" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B75" s="61">
+      <c r="A75" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C75" s="27">
-        <v>1984</v>
-      </c>
-      <c r="D75" s="19" t="str">
+      <c r="C75" s="26">
+        <v>37778</v>
+      </c>
+      <c r="D75" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>Нет данных</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
       <c r="X75" s="3" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B76" s="61">
+      <c r="A76" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="19" t="str">
+      <c r="C76" s="26"/>
+      <c r="D76" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E76" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
+      <c r="E76" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
-      <c r="X76" s="23" t="s">
-        <v>179</v>
+      <c r="X76" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:24">
-      <c r="A77" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B77" s="61">
+      <c r="A77" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="26">
         <v>29915</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
-      <c r="X77" s="23" t="s">
-        <v>179</v>
+      <c r="X77" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B78" s="61">
+      <c r="A78" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C78" s="27">
-        <v>28851</v>
-      </c>
-      <c r="D78" s="19">
+      <c r="C78" s="26">
+        <v>36887</v>
+      </c>
+      <c r="D78" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
-      <c r="X78" s="23" t="s">
-        <v>184</v>
+      <c r="X78" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:24">
-      <c r="A79" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B79" s="61">
+      <c r="A79" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C79" s="27">
-        <v>25468</v>
-      </c>
-      <c r="D79" s="19">
+      <c r="C79" s="26">
+        <v>37521</v>
+      </c>
+      <c r="D79" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
-      <c r="X79" s="23" t="s">
-        <v>179</v>
+      <c r="X79" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:24">
-      <c r="A80" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B80" s="61">
+      <c r="A80" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C80" s="27">
-        <v>29860</v>
-      </c>
-      <c r="D80" s="19">
+      <c r="C80" s="26">
+        <v>37895</v>
+      </c>
+      <c r="D80" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
-      <c r="X80" s="23" t="s">
-        <v>176</v>
+      <c r="X80" s="22" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:24">
-      <c r="A81" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B81" s="61">
+      <c r="A81" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C81" s="27">
-        <v>28051</v>
-      </c>
-      <c r="D81" s="19">
+      <c r="C81" s="26">
+        <v>38278</v>
+      </c>
+      <c r="D81" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
-      <c r="X81" s="23" t="s">
-        <v>184</v>
+      <c r="X81" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B82" s="61">
+      <c r="A82" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C82" s="27">
-        <v>30541</v>
-      </c>
-      <c r="D82" s="19">
+      <c r="C82" s="26">
+        <v>38942</v>
+      </c>
+      <c r="D82" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
       <c r="S82" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="23" t="s">
-        <v>184</v>
+      <c r="X82" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B83" s="61">
+      <c r="A83" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C83" s="27">
-        <v>30935</v>
-      </c>
-      <c r="D83" s="19">
+      <c r="C83" s="26">
+        <v>39335</v>
+      </c>
+      <c r="D83" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="23" t="s">
-        <v>189</v>
+      <c r="X83" s="22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:24">
-      <c r="A84" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B84" s="61">
+      <c r="A84" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C84" s="27">
-        <v>31929</v>
-      </c>
-      <c r="D84" s="19">
+      <c r="C84" s="26">
+        <v>37408</v>
+      </c>
+      <c r="D84" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="23" t="s">
-        <v>33</v>
+      <c r="X84" s="22" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:24">
-      <c r="A85" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B85" s="61">
+      <c r="A85" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C85" s="27">
-        <v>28868</v>
-      </c>
-      <c r="D85" s="19">
+      <c r="C85" s="26">
+        <v>37634</v>
+      </c>
+      <c r="D85" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
-      <c r="X85" s="23" t="s">
-        <v>176</v>
+      <c r="X85" s="22" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B86" s="61">
+      <c r="A86" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C86" s="27">
-        <v>31840</v>
-      </c>
-      <c r="D86" s="19">
+      <c r="C86" s="26">
+        <v>38050</v>
+      </c>
+      <c r="D86" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
-      <c r="X86" s="23" t="s">
-        <v>176</v>
+      <c r="X86" s="22" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="A87" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B87" s="61">
+      <c r="A87" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C87" s="27">
-        <v>31861</v>
-      </c>
-      <c r="D87" s="19">
+      <c r="C87" s="26">
+        <v>38436</v>
+      </c>
+      <c r="D87" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
-      <c r="X87" s="23" t="s">
-        <v>192</v>
+      <c r="X87" s="22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="A88" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B88" s="61">
+      <c r="A88" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C88" s="27">
-        <v>24217</v>
-      </c>
-      <c r="D88" s="19">
+      <c r="C88" s="26">
+        <v>38827</v>
+      </c>
+      <c r="D88" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
-      <c r="X88" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" ht="14.5">
-      <c r="A89" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B89" s="61">
+      <c r="X88" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="15">
+      <c r="A89" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="19" t="str">
+      <c r="C89" s="26"/>
+      <c r="D89" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W89" s="2"/>
-      <c r="X89" s="23"/>
+      <c r="X89" s="22"/>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B90" s="61">
+      <c r="A90" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="19" t="str">
+      <c r="C90" s="26"/>
+      <c r="D90" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
-      <c r="X90" s="23"/>
+      <c r="X90" s="22"/>
     </row>
     <row r="91" spans="1:24">
-      <c r="A91" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B91" s="61">
+      <c r="A91" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="19" t="str">
+      <c r="C91" s="26"/>
+      <c r="D91" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
-      <c r="X91" s="23"/>
+      <c r="X91" s="22"/>
     </row>
     <row r="92" spans="1:24">
-      <c r="A92" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="19" t="str">
+      <c r="A92" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E92" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
+      <c r="E92" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
       <c r="S92" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
-      <c r="X92" s="23"/>
+      <c r="X92" s="22"/>
     </row>
     <row r="93" spans="1:24">
-      <c r="A93" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B93" s="61">
+      <c r="A93" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B93" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C93" s="27">
-        <v>27967</v>
-      </c>
-      <c r="D93" s="19">
+      <c r="C93" s="26">
+        <v>37463</v>
+      </c>
+      <c r="D93" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
-      <c r="X93" s="23" t="s">
-        <v>189</v>
+      <c r="X93" s="22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:24">
-      <c r="A94" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B94" s="61">
+      <c r="A94" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="19" t="str">
+      <c r="C94" s="26"/>
+      <c r="D94" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="25" t="s">
-        <v>26</v>
+      <c r="E94" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
-      <c r="X94" s="23" t="s">
-        <v>33</v>
+      <c r="X94" s="22" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:24">
-      <c r="A95" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B95" s="61">
+      <c r="A95" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="19" t="str">
+      <c r="C95" s="26"/>
+      <c r="D95" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
-      <c r="S95" s="25" t="s">
-        <v>26</v>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
-      <c r="X95" s="23" t="s">
-        <v>184</v>
+      <c r="X95" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:24">
-      <c r="A96" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B96" s="61">
+      <c r="A96" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B96" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="19" t="str">
+      <c r="C96" s="26"/>
+      <c r="D96" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
-      <c r="S96" s="25" t="s">
-        <v>26</v>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
-      <c r="X96" s="23" t="s">
-        <v>33</v>
+      <c r="X96" s="22" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:24">
-      <c r="A97" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B97" s="61">
+      <c r="A97" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="59">
         <v>79999999999</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="19" t="str">
+      <c r="C97" s="26"/>
+      <c r="D97" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
-      <c r="S97" s="25"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="24"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
-      <c r="X97" s="23" t="s">
-        <v>37</v>
+      <c r="X97" s="22" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" s="1"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="19" t="str">
+      <c r="B98" s="25"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Нет данных</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
-      <c r="X98" s="23"/>
-    </row>
-    <row r="99" spans="1:24"/>
+      <c r="X98" s="22"/>
+    </row>
+    <row r="99" spans="1:24">
+      <c r="A99" s="70"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="72" t="str">
+        <f ca="1">IF(DATEDIF(C99, TODAY(), "Y") &gt; 80, "Нет данных", DATEDIF(C99, TODAY(), "Y"))</f>
+        <v>Нет данных</v>
+      </c>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="74"/>
+      <c r="T99" s="74"/>
+      <c r="U99" s="74"/>
+      <c r="V99" s="74"/>
+      <c r="W99" s="74"/>
+      <c r="X99" s="68"/>
+    </row>
     <row r="100" spans="1:24"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Возможные_источники_ЛПР</formula1>
     </dataValidation>
   </dataValidations>
@@ -13127,7 +13139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C97"/>
   <sheetViews>
@@ -13135,12 +13147,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13155,996 +13167,996 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="36"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="36"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="36"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="36"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="36"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="36"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="36"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="36"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="36"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="36"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="36"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="36"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="36"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="36"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="36"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="36"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="36"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="36"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="36"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="36"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="36"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="B94" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="37" t="s">
+      <c r="C94" s="36"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="37"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="37"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="37"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="37"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="37"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="37"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="37"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="37"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="37"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="37"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="37"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="37"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="37"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="37"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="37"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="37"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="37"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82" s="37"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="37"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="37"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="37"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="37"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="B91" s="37" t="s">
+      <c r="C95" s="36"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C91" s="37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="37" t="s">
+      <c r="B96" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="37"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="37" t="s">
+      <c r="C96" s="36"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B93" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="37"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="37"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" s="37"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97" s="37"/>
+      <c r="B97" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14155,51 +14167,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="40" t="s">
-        <v>220</v>
+      <c r="A1" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="38" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>211</v>
+      <c r="A2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <f>COUNTA(Таблица_ЛПР[Вконтакте Студента])</f>
         <v>23</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>'Возраст Студентов'!B7 - 'ВК Студентов'!A3</f>
         <v>73</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14216,92 +14228,92 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист6">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="49.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="63"/>
+      <c r="A1" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="67"/>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="str">
         <f xml:space="preserve"> CONCATENATE(От_1_группа_ЛПР, " - ", До_1_группа_ЛПР, " лет")</f>
-        <v>25 - 35 лет</v>
+        <v>16 - 19 лет</v>
       </c>
       <c r="B3">
         <f ca="1">COUNTIF(Таблица_ЛПР[Возраст Студента], "&gt;="&amp;От_1_группа_ЛПР) - COUNTIF(Таблица_ЛПР[Возраст Студента], "&gt;"&amp;До_1_группа_ЛПР)</f>
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="str">
         <f xml:space="preserve"> CONCATENATE(От_2_группа_ЛПР, " - ", До_2_группа_ЛПР, " лет")</f>
-        <v>36 - 45 лет</v>
+        <v>20 - 30 лет</v>
       </c>
       <c r="B4">
         <f ca="1">COUNTIF(Таблица_ЛПР[Возраст Студента], "&gt;="&amp;От_2_группа_ЛПР) - COUNTIF(Таблица_ЛПР[Возраст Студента], "&gt;"&amp;До_2_группа_ЛПР)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <f ca="1">B7-B6-B4-B3</f>
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B6">
         <f>B7-B10</f>
         <v>31</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="17">
         <f>COUNTA(Таблица_ЛПР[ФИО Студента])</f>
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B10">
         <f>COUNTA(Таблица_ЛПР[Дата рождения студента])</f>
@@ -14323,101 +14335,87 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Лист7">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="36">
       <c r="A1" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>218</v>
+        <v>269</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="B2" s="11">
         <f>COUNTIF(Таблица_ЛПР[Источник], Источники_ЛПР[[#This Row],[Иточник Студентов]])</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="B3" s="11">
         <f>COUNTIF(Таблица_ЛПР[Источник], Источники_ЛПР[[#This Row],[Иточник Студентов]])</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF(Таблица_ЛПР[Источник], Источники_ЛПР[[#This Row],[Иточник Студентов]])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="11">
-        <f>COUNTIF(Таблица_ЛПР[Источник], Источники_ЛПР[[#This Row],[Иточник Студентов]])</f>
-        <v>9</v>
+      <c r="A5" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="10">
+        <f>COUNTIF(Таблица_ЛПР[Источник], "")</f>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="10">
-        <f>COUNTA(Таблица_ЛПР[Источник]) - BI103 - BI105 - BI107 - BI109 - B7</f>
-        <v>83</v>
-      </c>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="10">
-        <f>COUNTIF(Таблица_ЛПР[Источник], "")</f>
-        <v>7</v>
-      </c>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:4">
@@ -14669,7 +14667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист8">
     <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14680,274 +14678,274 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="62.1796875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="37" style="41" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="14.453125" style="41"/>
+    <col min="1" max="1" width="62.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="37" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.25">
+      <c r="A7" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75"/>
+    <row r="10" spans="1:5" ht="12.75"/>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A13" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="46" t="s">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A14" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="46" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A15" s="39" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5">
-      <c r="A3" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="49"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.5">
-      <c r="A5" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" ht="26">
-      <c r="A7" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5">
-      <c r="A8" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.5"/>
-    <row r="10" spans="1:5" ht="12.5"/>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A12" s="41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A14" s="41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A15" s="41" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="17" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>241</v>
+      <c r="A17" s="39" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A18" s="41" t="s">
-        <v>242</v>
+      <c r="A18" s="39" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A19" s="41" t="s">
-        <v>243</v>
+      <c r="A19" s="39" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="21" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A21" s="60" t="s">
-        <v>257</v>
+      <c r="A21" s="58" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A22" s="60" t="s">
-        <v>258</v>
+      <c r="A22" s="58" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A23" s="60" t="s">
-        <v>259</v>
+      <c r="A23" s="58" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A24" s="60" t="s">
-        <v>260</v>
+      <c r="A24" s="58" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="26" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:1" ht="12.5"/>
-    <row r="28" spans="1:1" ht="12.5"/>
-    <row r="29" spans="1:1" ht="12.5"/>
-    <row r="30" spans="1:1" ht="12.5"/>
-    <row r="31" spans="1:1" ht="12.5"/>
-    <row r="32" spans="1:1" ht="12.5"/>
-    <row r="33" ht="12.5"/>
-    <row r="34" ht="12.5"/>
-    <row r="35" ht="12.5"/>
-    <row r="36" ht="12.5"/>
-    <row r="37" ht="12.5"/>
-    <row r="38" ht="12.5"/>
-    <row r="39" ht="12.5"/>
-    <row r="40" ht="12.5"/>
-    <row r="41" ht="12.5"/>
-    <row r="42" ht="12.5"/>
-    <row r="43" ht="12.5"/>
-    <row r="44" ht="12.5"/>
-    <row r="45" ht="12.5"/>
-    <row r="46" ht="12.5"/>
-    <row r="47" ht="12.5"/>
-    <row r="48" ht="12.5"/>
-    <row r="49" ht="12.5"/>
-    <row r="50" ht="12.5"/>
-    <row r="51" ht="12.5"/>
-    <row r="52" ht="12.5"/>
-    <row r="53" ht="12.5"/>
-    <row r="54" ht="12.5"/>
-    <row r="55" ht="12.5"/>
-    <row r="56" ht="12.5"/>
-    <row r="57" ht="12.5"/>
-    <row r="58" ht="12.5"/>
-    <row r="59" ht="12.5"/>
-    <row r="60" ht="12.5"/>
-    <row r="61" ht="12.5"/>
-    <row r="62" ht="12.5"/>
-    <row r="63" ht="12.5"/>
-    <row r="64" ht="12.5"/>
-    <row r="65" ht="12.5"/>
-    <row r="66" ht="12.5"/>
-    <row r="67" ht="12.5"/>
-    <row r="68" ht="12.5"/>
-    <row r="69" ht="12.5"/>
-    <row r="70" ht="12.5"/>
-    <row r="71" ht="12.5"/>
-    <row r="72" ht="12.5"/>
-    <row r="73" ht="12.5"/>
-    <row r="74" ht="12.5"/>
-    <row r="75" ht="12.5"/>
-    <row r="76" ht="12.5"/>
-    <row r="77" ht="12.5"/>
-    <row r="78" ht="12.5"/>
-    <row r="79" ht="12.5"/>
-    <row r="80" ht="12.5"/>
-    <row r="81" ht="12.5"/>
-    <row r="82" ht="12.5"/>
-    <row r="83" ht="12.5"/>
-    <row r="84" ht="12.5"/>
-    <row r="85" ht="12.5"/>
-    <row r="86" ht="12.5"/>
-    <row r="87" ht="12.5"/>
-    <row r="88" ht="12.5"/>
-    <row r="89" ht="12.5"/>
-    <row r="90" ht="12.5"/>
-    <row r="91" ht="12.5"/>
-    <row r="92" ht="12.5"/>
-    <row r="93" ht="12.5"/>
-    <row r="94" ht="12.5"/>
-    <row r="95" ht="12.5"/>
-    <row r="96" ht="12.5"/>
-    <row r="97" ht="12.5"/>
-    <row r="98" ht="12.5"/>
-    <row r="99" ht="12.5"/>
-    <row r="100" ht="12.5"/>
-    <row r="101" ht="12.5"/>
+    <row r="27" spans="1:1" ht="12.75"/>
+    <row r="28" spans="1:1" ht="12.75"/>
+    <row r="29" spans="1:1" ht="12.75"/>
+    <row r="30" spans="1:1" ht="12.75"/>
+    <row r="31" spans="1:1" ht="12.75"/>
+    <row r="32" spans="1:1" ht="12.75"/>
+    <row r="33" ht="12.75"/>
+    <row r="34" ht="12.75"/>
+    <row r="35" ht="12.75"/>
+    <row r="36" ht="12.75"/>
+    <row r="37" ht="12.75"/>
+    <row r="38" ht="12.75"/>
+    <row r="39" ht="12.75"/>
+    <row r="40" ht="12.75"/>
+    <row r="41" ht="12.75"/>
+    <row r="42" ht="12.75"/>
+    <row r="43" ht="12.75"/>
+    <row r="44" ht="12.75"/>
+    <row r="45" ht="12.75"/>
+    <row r="46" ht="12.75"/>
+    <row r="47" ht="12.75"/>
+    <row r="48" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
+    <row r="52" ht="12.75"/>
+    <row r="53" ht="12.75"/>
+    <row r="54" ht="12.75"/>
+    <row r="55" ht="12.75"/>
+    <row r="56" ht="12.75"/>
+    <row r="57" ht="12.75"/>
+    <row r="58" ht="12.75"/>
+    <row r="59" ht="12.75"/>
+    <row r="60" ht="12.75"/>
+    <row r="61" ht="12.75"/>
+    <row r="62" ht="12.75"/>
+    <row r="63" ht="12.75"/>
+    <row r="64" ht="12.75"/>
+    <row r="65" ht="12.75"/>
+    <row r="66" ht="12.75"/>
+    <row r="67" ht="12.75"/>
+    <row r="68" ht="12.75"/>
+    <row r="69" ht="12.75"/>
+    <row r="70" ht="12.75"/>
+    <row r="71" ht="12.75"/>
+    <row r="72" ht="12.75"/>
+    <row r="73" ht="12.75"/>
+    <row r="74" ht="12.75"/>
+    <row r="75" ht="12.75"/>
+    <row r="76" ht="12.75"/>
+    <row r="77" ht="12.75"/>
+    <row r="78" ht="12.75"/>
+    <row r="79" ht="12.75"/>
+    <row r="80" ht="12.75"/>
+    <row r="81" ht="12.75"/>
+    <row r="82" ht="12.75"/>
+    <row r="83" ht="12.75"/>
+    <row r="84" ht="12.75"/>
+    <row r="85" ht="12.75"/>
+    <row r="86" ht="12.75"/>
+    <row r="87" ht="12.75"/>
+    <row r="88" ht="12.75"/>
+    <row r="89" ht="12.75"/>
+    <row r="90" ht="12.75"/>
+    <row r="91" ht="12.75"/>
+    <row r="92" ht="12.75"/>
+    <row r="93" ht="12.75"/>
+    <row r="94" ht="12.75"/>
+    <row r="95" ht="12.75"/>
+    <row r="96" ht="12.75"/>
+    <row r="97" ht="12.75"/>
+    <row r="98" ht="12.75"/>
+    <row r="99" ht="12.75"/>
+    <row r="100" ht="12.75"/>
+    <row r="101" ht="12.75"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" location="'Возраст ЛПР'!A1" display="Лист Возраст Детей"/>
-    <hyperlink ref="E5" location="'Возраст ЛПР'!A1" display="Лист Возраст ЛПР"/>
-    <hyperlink ref="E8" location="'Источники ЛПР'!A1" display="Лист Источники ЛПР"/>
-    <hyperlink ref="E7" location="'Instagram ЛПР'!A1" display="Лист Instagram ЛПР"/>
+    <hyperlink ref="E3" location="'Возраст ЛПР'!A1" display="Лист Возраст Детей" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E5" location="'Возраст ЛПР'!A1" display="Лист Возраст ЛПР" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E8" location="'Источники ЛПР'!A1" display="Лист Источники ЛПР" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E7" location="'Instagram ЛПР'!A1" display="Лист Instagram ЛПР" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
